--- a/Rough Schedule.xlsx
+++ b/Rough Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pieter Goos\Google Drive\Stellenbosch University\5th Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8CB0E9-2BF6-4BC4-A581-6AF4DE105804}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13871D0E-F0C4-4AAE-A80F-592E314A84EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33330" yWindow="-9690" windowWidth="21600" windowHeight="11430" xr2:uid="{5BC42A18-0582-4B1B-A7BE-D146FD23C068}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{5BC42A18-0582-4B1B-A7BE-D146FD23C068}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>MON</t>
   </si>
@@ -127,6 +127,51 @@
   </si>
   <si>
     <t>Hand In</t>
+  </si>
+  <si>
+    <t>Task Completed</t>
+  </si>
+  <si>
+    <t>Design Specifications</t>
+  </si>
+  <si>
+    <t>Initial setup of ST board, CubeMX, GIT. \newline Edited Example Code. Made Arduino Test Code.</t>
+  </si>
+  <si>
+    <t>Layout and PCB design.</t>
+  </si>
+  <si>
+    <t>PCB Design and Manufacture.</t>
+  </si>
+  <si>
+    <t>PCB Tidy Up and Assembly</t>
+  </si>
+  <si>
+    <t>LED Driver Coding with PCB Tidy Up</t>
+  </si>
+  <si>
+    <t>PCB Design Updated and LED Driver Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button, UART and ADC (Tempo) Coded </t>
+  </si>
+  <si>
+    <t>LCD Coding and STM Audio Driver Added</t>
+  </si>
+  <si>
+    <t>Figuring out STM Audio Driver</t>
+  </si>
+  <si>
+    <t>File Reading from USB drive Coding</t>
+  </si>
+  <si>
+    <t>File Reading from USB drive Coding and Playing with STM Audio Driver</t>
+  </si>
+  <si>
+    <t>Changed Audio Driver and Pre-Load Audio Files</t>
+  </si>
+  <si>
+    <t>Top Panel Manufacture and Report Writing</t>
   </si>
 </sst>
 </file>
@@ -134,7 +179,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-1C09]dd/mmmm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1C09]dd/mmmm/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -153,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,23 +206,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,18 +555,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239A017F-319E-4430-A392-7D1B4F879147}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L2" sqref="L2:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.19921875" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -529,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>43500</v>
       </c>
@@ -540,10 +605,16 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="L2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>43507</v>
       </c>
@@ -554,32 +625,44 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="L3" s="7">
+        <v>43500</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>43514</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H4" s="3"/>
+      <c r="L4" s="7">
+        <v>43507</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>43521</v>
       </c>
@@ -590,10 +673,16 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="L5" s="7">
+        <v>43514</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>43528</v>
       </c>
@@ -603,13 +692,19 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="L6" s="7">
+        <v>43521</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>43535</v>
       </c>
@@ -623,37 +718,55 @@
         <v>17</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H7" s="3"/>
+      <c r="L7" s="7">
+        <v>43528</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>43542</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="L8" s="7">
+        <v>43535</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>43549</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="L9" s="7">
+        <v>43542</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>43556</v>
       </c>
@@ -663,15 +776,21 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H10" s="3"/>
+      <c r="L10" s="7">
+        <v>43549</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>43563</v>
       </c>
@@ -679,15 +798,21 @@
         <v>24</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="L11" s="7">
+        <v>43556</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>43570</v>
       </c>
@@ -698,10 +823,16 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="L12" s="7">
+        <v>43563</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>43577</v>
       </c>
@@ -713,13 +844,19 @@
         <v>26</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="L13" s="7">
+        <v>43570</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>43584</v>
       </c>
@@ -730,10 +867,16 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="L14" s="7">
+        <v>43577</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>43591</v>
       </c>
@@ -745,13 +888,19 @@
         <v>28</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="L15" s="7">
+        <v>43584</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>43598</v>
       </c>
@@ -762,10 +911,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="L16" s="7">
+        <v>43591</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>43605</v>
       </c>
@@ -776,27 +931,58 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="L17" s="7">
+        <v>43598</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>43612</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="L18" s="7">
+        <v>43605</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L19" s="7">
+        <v>43612</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L20" s="7">
+        <v>43619</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L21" s="1">
+        <v>43626</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B11:C11"/>
@@ -805,15 +991,17 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
